--- a/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
@@ -786,7 +786,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>5/9</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>81,06%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>78,92%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>79,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>82,15%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>80,97%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>73,27%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>72,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>80,94%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>81,02%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>76,17%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>76,2%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>81,58%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>59,71; 70,07</t>
+          <t>74,62; 86,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>68,65; 78,17</t>
+          <t>72,71; 84,61</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>68,48; 78,23</t>
+          <t>73,12; 84,38</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>78,53; 86,56</t>
+          <t>75,05; 88,19</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>51,86; 62,41</t>
+          <t>73,53; 86,02</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,85; 76,3</t>
+          <t>65,97; 79,2</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>68,13; 77,91</t>
+          <t>66,09; 78,78</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>78,09; 86,2</t>
+          <t>72,59; 87,47</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>57,32; 64,76</t>
+          <t>76,75; 85,14</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>68,99; 75,91</t>
+          <t>71,58; 80,51</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>70,31; 76,98</t>
+          <t>71,82; 80,31</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>79,3; 85,18</t>
+          <t>76,59; 85,98</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>10/15</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>65,07%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>73,77%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>73,64%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>82,59%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>57,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>73,27%</t>
+          <t>70,97%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>73,5%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>61,19%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>72,39%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>73,57%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>82,51%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>74,62; 86,2</t>
+          <t>59,71; 70,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>72,71; 84,61</t>
+          <t>68,65; 78,17</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,12; 84,38</t>
+          <t>68,48; 78,23</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,05; 88,19</t>
+          <t>78,53; 86,56</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>73,53; 86,02</t>
+          <t>51,86; 62,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,97; 79,2</t>
+          <t>65,85; 76,3</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>66,09; 78,78</t>
+          <t>68,13; 77,91</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>72,59; 87,47</t>
+          <t>78,09; 86,2</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>76,75; 85,14</t>
+          <t>57,32; 64,76</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>71,58; 80,51</t>
+          <t>68,99; 75,91</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>71,82; 80,31</t>
+          <t>70,31; 76,98</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>76,59; 85,98</t>
+          <t>79,3; 85,18</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -646,7 +646,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>0/4</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -656,62 +656,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82,89%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84,03%</t>
+          <t>75,9%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>85,79%</t>
+          <t>80,33%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>78,74%</t>
+          <t>62,14%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>82,75%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>81,88%</t>
+          <t>72,93%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>87,94%</t>
+          <t>86,75%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>80,68%</t>
+          <t>68,52%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>82,01%</t>
+          <t>100,0%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>83,11%</t>
+          <t>74,33%</t>
         </is>
       </c>
     </row>
@@ -724,69 +724,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>73,08; 96,94</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>53,0; 95,25</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>53,81; 94,19</t>
+          <t>43,07; 100</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>69,53; 93,63</t>
+          <t>35,27; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>70,25; 94,79</t>
+          <t>22,65; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>57,93; 92,1</t>
+          <t>20,04; 100,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>59,5; 94,84</t>
+          <t>22,85; 100</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>64,1; 94,39</t>
+          <t>27,0; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>78,23; 94,13</t>
+          <t>48,41; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>66,88; 90,54</t>
+          <t>17,63; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>66,45; 91,76</t>
+          <t>55,59; 100</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>72,27; 91,09</t>
+          <t>47,95; 93,11</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>5/9</t>
+          <t>3-7</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>81,06%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>78,92%</t>
+          <t>81,3%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>79,34%</t>
+          <t>79,97%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>82,15%</t>
+          <t>84,87%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>80,97%</t>
+          <t>83,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>73,27%</t>
+          <t>78,56%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>72,96%</t>
+          <t>80,41%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>80,94%</t>
+          <t>83,54%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>81,02%</t>
+          <t>84,22%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>76,17%</t>
+          <t>80,04%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>76,2%</t>
+          <t>80,17%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>81,58%</t>
+          <t>84,23%</t>
         </is>
       </c>
     </row>
@@ -864,69 +864,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>74,62; 86,2</t>
+          <t>77,92; 90,25</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>72,71; 84,61</t>
+          <t>74,22; 88,22</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>73,12; 84,38</t>
+          <t>71,63; 86,36</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>75,05; 88,19</t>
+          <t>76,74; 91,21</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>73,53; 86,02</t>
+          <t>76,42; 90,09</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>65,97; 79,2</t>
+          <t>70,28; 85,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>66,09; 78,78</t>
+          <t>72,25; 88,05</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>72,59; 87,47</t>
+          <t>74,48; 90,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>76,75; 85,14</t>
+          <t>79,47; 88,89</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>71,58; 80,51</t>
+          <t>73,91; 84,16</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>71,82; 80,31</t>
+          <t>73,66; 84,87</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>76,59; 85,98</t>
+          <t>78,54; 88,78</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/15</t>
+          <t>8-11</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>65,07%</t>
+          <t>80,38%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>73,77%</t>
+          <t>72,88%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>73,64%</t>
+          <t>79,04%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>82,59%</t>
+          <t>82,44%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>57,16%</t>
+          <t>70,44%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>70,97%</t>
+          <t>74,89%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>73,5%</t>
+          <t>74,27%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,42%</t>
+          <t>82,76%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>61,19%</t>
+          <t>75,57%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>72,39%</t>
+          <t>73,86%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>73,57%</t>
+          <t>76,66%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>82,51%</t>
+          <t>82,58%</t>
         </is>
       </c>
     </row>
@@ -1004,69 +1004,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>59,71; 70,07</t>
+          <t>73,84; 85,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>68,65; 78,17</t>
+          <t>65,77; 78,76</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>68,48; 78,23</t>
+          <t>73,39; 84,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>78,53; 86,56</t>
+          <t>76,82; 87,71</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>51,86; 62,41</t>
+          <t>62,92; 77,52</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>65,85; 76,3</t>
+          <t>67,97; 80,38</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,13; 77,91</t>
+          <t>68,69; 79,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>78,09; 86,2</t>
+          <t>75,22; 88,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>57,32; 64,76</t>
+          <t>70,37; 79,94</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>68,99; 75,91</t>
+          <t>69,05; 77,72</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>70,31; 76,98</t>
+          <t>72,67; 80,34</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>79,3; 85,18</t>
+          <t>77,74; 86,58</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>12-15</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>71,38%</t>
+          <t>59,51%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>75,98%</t>
+          <t>75,26%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>75,92%</t>
+          <t>69,81%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>82,54%</t>
+          <t>82,01%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>66,17%</t>
+          <t>54,08%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>72,13%</t>
+          <t>66,57%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>73,58%</t>
+          <t>69,54%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>81,26%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>68,82%</t>
+          <t>56,88%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>74,08%</t>
+          <t>70,83%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>74,76%</t>
+          <t>69,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>81,66%</t>
         </is>
       </c>
     </row>
@@ -1144,68 +1144,216 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>67,59; 75,19</t>
+          <t>53,69; 65,37</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71,97; 79,4</t>
+          <t>69,18; 80,95</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>72,19; 79,68</t>
+          <t>62,71; 76,69</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>78,73; 85,59</t>
+          <t>76,26; 87,0</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>61,4; 69,76</t>
+          <t>47,13; 60,29</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>67,86; 75,75</t>
+          <t>59,62; 72,11</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>69,6; 77,51</t>
+          <t>62,77; 75,17</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>78,63; 85,3</t>
+          <t>76,27; 85,63</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>65,89; 71,63</t>
+          <t>52,45; 61,21</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>71,46; 76,69</t>
+          <t>66,09; 74,8</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>72,09; 77,36</t>
+          <t>65,07; 73,9</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>79,96; 84,66</t>
+          <t>77,42; 84,97</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>71,38%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>75,98%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>75,92%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>82,54%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>66,17%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>72,13%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>73,58%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>81,98%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>68,82%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>74,08%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>74,76%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>82,28%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>67,66; 75,56</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>72,16; 79,26</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>72,15; 79,21</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>78,67; 85,56</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>62,23; 70,43</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>67,84; 75,69</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>69,93; 77,39</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>78,01; 85,18</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>66,22; 71,67</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>71,29; 76,63</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>71,73; 77,28</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>79,71; 84,72</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>

--- a/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>35,27; 100,0</t>
+          <t>37,03; 100,0</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>22,65; 100,0</t>
+          <t>27,99; 100,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -759,17 +759,17 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>27,0; 100,0</t>
+          <t>36,66; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,41; 100,0</t>
+          <t>48,03; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,63; 100,0</t>
+          <t>17,67; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>47,95; 93,11</t>
+          <t>46,59; 92,42</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,92; 90,25</t>
+          <t>77,64; 90,97</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>74,22; 88,22</t>
+          <t>73,67; 87,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,63; 86,36</t>
+          <t>71,03; 86,48</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,74; 91,21</t>
+          <t>76,24; 91,1</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,42; 90,09</t>
+          <t>76,75; 90,28</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>70,28; 85,8</t>
+          <t>69,97; 85,58</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>72,25; 88,05</t>
+          <t>71,64; 87,27</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>74,48; 90,35</t>
+          <t>75,02; 89,63</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,47; 88,89</t>
+          <t>79,01; 88,34</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>73,91; 84,16</t>
+          <t>74,18; 84,4</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>73,66; 84,87</t>
+          <t>74,36; 85,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>78,54; 88,78</t>
+          <t>78,45; 88,54</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,84; 85,96</t>
+          <t>73,56; 86,24</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,77; 78,76</t>
+          <t>65,44; 79,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,39; 84,07</t>
+          <t>73,05; 84,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>76,82; 87,71</t>
+          <t>75,87; 87,67</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,92; 77,52</t>
+          <t>62,64; 77,56</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>67,97; 80,38</t>
+          <t>68,06; 80,76</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,69; 79,77</t>
+          <t>68,0; 80,0</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,22; 88,47</t>
+          <t>75,55; 88,28</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,37; 79,94</t>
+          <t>70,33; 80,19</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,05; 77,72</t>
+          <t>69,52; 78,13</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,67; 80,34</t>
+          <t>72,34; 80,25</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,74; 86,58</t>
+          <t>77,7; 86,43</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,69; 65,37</t>
+          <t>53,0; 65,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,18; 80,95</t>
+          <t>69,26; 80,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>62,71; 76,69</t>
+          <t>63,47; 75,82</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,26; 87,0</t>
+          <t>76,67; 86,95</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,13; 60,29</t>
+          <t>47,66; 60,38</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,62; 72,11</t>
+          <t>59,61; 72,64</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,77; 75,17</t>
+          <t>62,88; 76,22</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>76,27; 85,63</t>
+          <t>75,8; 85,62</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,45; 61,21</t>
+          <t>52,07; 60,83</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66,09; 74,8</t>
+          <t>66,43; 75,25</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>65,07; 73,9</t>
+          <t>65,13; 74,19</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>77,42; 84,97</t>
+          <t>77,78; 85,25</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,66; 75,56</t>
+          <t>67,04; 74,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,16; 79,26</t>
+          <t>72,05; 79,43</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,15; 79,21</t>
+          <t>72,38; 79,31</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>78,67; 85,56</t>
+          <t>79,16; 85,71</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>62,23; 70,43</t>
+          <t>61,85; 69,9</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>67,84; 75,69</t>
+          <t>68,03; 75,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,93; 77,39</t>
+          <t>69,14; 77,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,01; 85,18</t>
+          <t>78,33; 85,27</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,22; 71,67</t>
+          <t>66,06; 71,53</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,29; 76,63</t>
+          <t>71,36; 76,64</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>71,73; 77,28</t>
+          <t>72,05; 77,41</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>79,71; 84,72</t>
+          <t>79,87; 84,57</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
+++ b/data/trans_dic/IP19C01-Edad-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -540,7 +540,7 @@
       <c r="B1" s="2" t="n"/>
       <c r="C1" s="3" t="inlineStr">
         <is>
-          <t>Hombre</t>
+          <t>Niña</t>
         </is>
       </c>
       <c r="D1" s="3" t="n"/>
@@ -548,7 +548,7 @@
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="inlineStr">
         <is>
-          <t>Mujer</t>
+          <t>Niño</t>
         </is>
       </c>
       <c r="H1" s="3" t="n"/>
@@ -656,34 +656,34 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
+          <t>80,33%</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>62,14%</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="D4" s="2" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>71,95%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="E4" s="2" t="inlineStr">
+      <c r="H4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
         </is>
       </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>75,9%</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>80,33%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>62,14%</t>
-        </is>
-      </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
           <t>100,0%</t>
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>72,93%</t>
+          <t>75,02%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>74,33%</t>
+          <t>73,42%</t>
         </is>
       </c>
     </row>
@@ -724,52 +724,52 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
+          <t>22,98; 100,0</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20,07; 100,0</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>22,85; 100</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>35,07; 100,0</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
           <t>55,59; 100</t>
         </is>
       </c>
-      <c r="D5" s="2" t="inlineStr">
+      <c r="H5" s="2" t="inlineStr">
         <is>
           <t>22,85; 100</t>
         </is>
       </c>
-      <c r="E5" s="2" t="inlineStr">
+      <c r="I5" s="2" t="inlineStr">
         <is>
           <t>43,07; 100</t>
         </is>
       </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>37,03; 100,0</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>27,99; 100,0</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>20,04; 100,0</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>22,85; 100</t>
-        </is>
-      </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>36,66; 100,0</t>
+          <t>36,19; 100,0</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>48,03; 100,0</t>
+          <t>41,19; 100,0</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>17,67; 100,0</t>
+          <t>17,66; 100,0</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>46,59; 92,42</t>
+          <t>47,33; 92,06</t>
         </is>
       </c>
     </row>
@@ -796,42 +796,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
+          <t>83,94%</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>78,56%</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>80,41%</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>83,57%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>84,53%</t>
         </is>
       </c>
-      <c r="D6" s="2" t="inlineStr">
+      <c r="H6" s="2" t="inlineStr">
         <is>
           <t>81,3%</t>
         </is>
       </c>
-      <c r="E6" s="2" t="inlineStr">
+      <c r="I6" s="2" t="inlineStr">
         <is>
           <t>79,97%</t>
         </is>
       </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>84,87%</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>83,94%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>78,56%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>80,41%</t>
-        </is>
-      </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>83,54%</t>
+          <t>84,49%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>84,23%</t>
+          <t>84,07%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>77,64; 90,97</t>
+          <t>76,53; 90,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>73,67; 87,75</t>
+          <t>70,06; 85,48</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>71,03; 86,48</t>
+          <t>71,4; 87,46</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>76,24; 91,1</t>
+          <t>74,26; 90,12</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>76,75; 90,28</t>
+          <t>77,32; 90,3</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>69,97; 85,58</t>
+          <t>74,34; 87,31</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>71,64; 87,27</t>
+          <t>71,86; 86,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>75,02; 89,63</t>
+          <t>74,98; 90,71</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>79,01; 88,34</t>
+          <t>79,3; 88,78</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>74,18; 84,4</t>
+          <t>74,29; 84,77</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>74,36; 85,18</t>
+          <t>74,94; 85,5</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>78,45; 88,54</t>
+          <t>78,39; 89,09</t>
         </is>
       </c>
     </row>
@@ -936,42 +936,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
+          <t>70,44%</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74,89%</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>74,27%</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>82,02%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>80,38%</t>
         </is>
       </c>
-      <c r="D8" s="2" t="inlineStr">
+      <c r="H8" s="2" t="inlineStr">
         <is>
           <t>72,88%</t>
         </is>
       </c>
-      <c r="E8" s="2" t="inlineStr">
+      <c r="I8" s="2" t="inlineStr">
         <is>
           <t>79,04%</t>
         </is>
       </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>82,44%</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>70,44%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>74,89%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>74,27%</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>82,76%</t>
+          <t>82,37%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>82,58%</t>
+          <t>82,23%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>73,56; 86,24</t>
+          <t>63,16; 77,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>65,44; 79,32</t>
+          <t>68,39; 80,57</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>73,05; 84,31</t>
+          <t>67,76; 79,85</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>75,87; 87,67</t>
+          <t>73,06; 87,86</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>62,64; 77,56</t>
+          <t>73,51; 85,92</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>68,06; 80,76</t>
+          <t>66,63; 78,49</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>68,0; 80,0</t>
+          <t>73,12; 84,21</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>75,55; 88,28</t>
+          <t>75,8; 87,79</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>70,33; 80,19</t>
+          <t>70,78; 79,97</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>69,52; 78,13</t>
+          <t>69,08; 78,06</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>72,34; 80,25</t>
+          <t>72,75; 80,78</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>77,7; 86,43</t>
+          <t>77,38; 86,12</t>
         </is>
       </c>
     </row>
@@ -1076,42 +1076,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
+          <t>54,08%</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>66,57%</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>69,54%</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>81,11%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>59,51%</t>
         </is>
       </c>
-      <c r="D10" s="2" t="inlineStr">
+      <c r="H10" s="2" t="inlineStr">
         <is>
           <t>75,26%</t>
         </is>
       </c>
-      <c r="E10" s="2" t="inlineStr">
+      <c r="I10" s="2" t="inlineStr">
         <is>
           <t>69,81%</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>82,01%</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>54,08%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>66,57%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>69,54%</t>
-        </is>
-      </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>81,26%</t>
+          <t>81,94%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>81,66%</t>
+          <t>81,56%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>53,0; 65,09</t>
+          <t>48,08; 60,54</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>69,26; 80,52</t>
+          <t>60,55; 73,17</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63,47; 75,82</t>
+          <t>63,16; 75,65</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>76,67; 86,95</t>
+          <t>75,79; 85,93</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,66; 60,38</t>
+          <t>54,01; 65,59</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>59,61; 72,64</t>
+          <t>69,17; 80,65</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>62,88; 76,22</t>
+          <t>63,12; 76,14</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>75,8; 85,62</t>
+          <t>76,51; 87,03</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>52,07; 60,83</t>
+          <t>52,66; 61,28</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66,43; 75,25</t>
+          <t>66,5; 75,06</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>65,13; 74,19</t>
+          <t>65,09; 74,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>77,78; 85,25</t>
+          <t>77,98; 85,29</t>
         </is>
       </c>
     </row>
@@ -1216,42 +1216,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>66,17%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>72,13%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>73,58%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>81,67%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>71,38%</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
+      <c r="H12" s="2" t="inlineStr">
         <is>
           <t>75,98%</t>
         </is>
       </c>
-      <c r="E12" s="2" t="inlineStr">
+      <c r="I12" s="2" t="inlineStr">
         <is>
           <t>75,92%</t>
         </is>
       </c>
-      <c r="F12" s="2" t="inlineStr">
-        <is>
-          <t>82,54%</t>
-        </is>
-      </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>66,17%</t>
-        </is>
-      </c>
-      <c r="H12" s="2" t="inlineStr">
-        <is>
-          <t>72,13%</t>
-        </is>
-      </c>
-      <c r="I12" s="2" t="inlineStr">
-        <is>
-          <t>73,58%</t>
-        </is>
-      </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>81,98%</t>
+          <t>82,42%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1271,7 +1271,7 @@
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>82,28%</t>
+          <t>82,09%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>67,04; 74,76</t>
+          <t>61,4; 69,76</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>72,05; 79,43</t>
+          <t>67,86; 75,75</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>72,38; 79,31</t>
+          <t>69,6; 77,51</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>79,16; 85,71</t>
+          <t>77,96; 84,91</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>61,85; 69,9</t>
+          <t>67,59; 75,19</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>68,03; 75,7</t>
+          <t>71,97; 79,4</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>69,14; 77,05</t>
+          <t>72,19; 79,68</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>78,33; 85,27</t>
+          <t>78,51; 85,69</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>66,06; 71,53</t>
+          <t>65,89; 71,63</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>71,36; 76,64</t>
+          <t>71,46; 76,69</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>72,05; 77,41</t>
+          <t>72,09; 77,36</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>79,87; 84,57</t>
+          <t>79,73; 84,54</t>
         </is>
       </c>
     </row>
